--- a/data/respirometry/deep/final_rates/300_rates.xlsx
+++ b/data/respirometry/deep/final_rates/300_rates.xlsx
@@ -1278,16 +1278,16 @@
         </is>
       </c>
       <c r="T10">
-        <v>0.15444</v>
+        <v>0.1405756097560976</v>
       </c>
       <c r="V10">
         <v>0.000247847478474785</v>
       </c>
       <c r="Z10">
-        <v>0.5741713907522733</v>
+        <v>0.5226268671296774</v>
       </c>
       <c r="AB10">
-        <v>2316.631963680386</v>
+        <v>2108.663240577803</v>
       </c>
       <c r="AC10" t="inlineStr">
         <is>
@@ -1295,7 +1295,7 @@
         </is>
       </c>
       <c r="AD10">
-        <v>2316.631963680386</v>
+        <v>2108.663240577803</v>
       </c>
       <c r="AE10" t="inlineStr">
         <is>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="T11">
-        <v>0.15444</v>
+        <v>0.144009756097561</v>
       </c>
       <c r="V11">
         <v>0.000151796696538394</v>
       </c>
       <c r="Z11">
-        <v>0.1539162704064123</v>
+        <v>0.1435213970517591</v>
       </c>
       <c r="AB11">
-        <v>1013.963241074104</v>
+        <v>945.4843242616821</v>
       </c>
       <c r="AC11" t="inlineStr">
         <is>
@@ -1382,7 +1382,7 @@
         </is>
       </c>
       <c r="AD11">
-        <v>1013.963241074104</v>
+        <v>945.4843242616821</v>
       </c>
       <c r="AE11" t="inlineStr">
         <is>
@@ -1452,16 +1452,16 @@
         </is>
       </c>
       <c r="T12">
-        <v>0.15444</v>
+        <v>0.1462634146341464</v>
       </c>
       <c r="V12">
         <v>0.0001561017395888245</v>
       </c>
       <c r="Z12">
-        <v>0.06201302103501136</v>
+        <v>0.05872983817896857</v>
       </c>
       <c r="AB12">
-        <v>397.2602816493593</v>
+        <v>376.2279544972676</v>
       </c>
       <c r="AC12" t="inlineStr">
         <is>
@@ -1469,7 +1469,7 @@
         </is>
       </c>
       <c r="AD12">
-        <v>397.2602816493593</v>
+        <v>376.2279544972676</v>
       </c>
       <c r="AE12" t="inlineStr">
         <is>
@@ -1539,16 +1539,16 @@
         </is>
       </c>
       <c r="T13">
-        <v>0.15444</v>
+        <v>0.1500390243902439</v>
       </c>
       <c r="V13">
         <v>0.0001601212440695836</v>
       </c>
       <c r="Z13">
-        <v>0.1026445181253194</v>
+        <v>0.09971952446600377</v>
       </c>
       <c r="AB13">
-        <v>641.0424720452041</v>
+        <v>622.775104237067</v>
       </c>
       <c r="AC13" t="inlineStr">
         <is>
@@ -1556,7 +1556,7 @@
         </is>
       </c>
       <c r="AD13">
-        <v>641.0424720452041</v>
+        <v>622.775104237067</v>
       </c>
       <c r="AE13" t="inlineStr">
         <is>
@@ -1626,16 +1626,16 @@
         </is>
       </c>
       <c r="T14">
-        <v>0.15444</v>
+        <v>0.1463707317073171</v>
       </c>
       <c r="V14">
         <v>0.0001600773150588649</v>
       </c>
       <c r="Z14">
-        <v>0.040366715999579</v>
+        <v>0.03825761303729501</v>
       </c>
       <c r="AB14">
-        <v>252.1701215736598</v>
+        <v>238.9945947258462</v>
       </c>
       <c r="AC14" t="inlineStr">
         <is>
@@ -1643,7 +1643,7 @@
         </is>
       </c>
       <c r="AD14">
-        <v>252.1701215736598</v>
+        <v>238.9945947258462</v>
       </c>
       <c r="AE14" t="inlineStr">
         <is>
@@ -1713,16 +1713,16 @@
         </is>
       </c>
       <c r="T15">
-        <v>0.15444</v>
+        <v>0.1465658536585366</v>
       </c>
       <c r="V15">
         <v>0.0002004041468986119</v>
       </c>
       <c r="Z15">
-        <v>0.1338114543874925</v>
+        <v>0.1269890575083733</v>
       </c>
       <c r="AB15">
-        <v>667.7080113276804</v>
+        <v>633.6648191847016</v>
       </c>
       <c r="AC15" t="inlineStr">
         <is>
@@ -1730,7 +1730,7 @@
         </is>
       </c>
       <c r="AD15">
-        <v>667.7080113276804</v>
+        <v>633.6648191847016</v>
       </c>
       <c r="AE15" t="inlineStr">
         <is>
@@ -1800,16 +1800,16 @@
         </is>
       </c>
       <c r="T16">
-        <v>0.15444</v>
+        <v>0.1449658536585366</v>
       </c>
       <c r="V16">
         <v>0.0002479133719908628</v>
       </c>
       <c r="Z16">
-        <v>0.1970549742143442</v>
+        <v>0.1849666055079211</v>
       </c>
       <c r="AB16">
-        <v>794.8541566430994</v>
+        <v>746.093702096627</v>
       </c>
       <c r="AC16" t="inlineStr">
         <is>
@@ -1817,7 +1817,7 @@
         </is>
       </c>
       <c r="AD16">
-        <v>794.8541566430994</v>
+        <v>746.093702096627</v>
       </c>
       <c r="AE16" t="inlineStr">
         <is>
@@ -1887,7 +1887,7 @@
         </is>
       </c>
       <c r="T17">
-        <v>0.15444</v>
+        <v>0.1544</v>
       </c>
       <c r="V17">
         <v>0</v>
